--- a/data/unchecked/manual_collect/china/jiangsu/jiangsuCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/jiangsu/jiangsuCaseStatistics_20200218.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9373" uniqueCount="3305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9401" uniqueCount="3307">
   <si>
     <t>序号</t>
   </si>
@@ -10276,9 +10276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未核查</t>
-  </si>
-  <si>
     <t>江苏卫健委</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10313,6 +10310,16 @@
   <si>
     <t>http://wjw.jiangsu.gov.cn/art/2020/2/19/art_7290_8976979.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已核查</t>
+  </si>
+  <si>
+    <t>林增敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
   </si>
 </sst>
 </file>
@@ -10786,8 +10793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10993,10 +11000,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="W2" s="13"/>
       <c r="Z2" s="23">
@@ -11009,13 +11016,20 @@
         <v>3294</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD2" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE2" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF2" s="21"/>
+      <c r="AF2" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>3306</v>
+      </c>
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
@@ -11054,16 +11068,16 @@
         <v>35</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="T3" s="13">
         <v>43880.368877314817</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z3" s="23">
         <v>43880.379166666666</v>
@@ -11075,13 +11089,20 @@
         <v>3294</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD3" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE3" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF3" s="21"/>
+      <c r="AF3" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="16">
@@ -11122,10 +11143,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z4" s="23">
         <v>43880.379166666666</v>
@@ -11137,13 +11158,20 @@
         <v>3294</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD4" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE4" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF4" s="21"/>
+      <c r="AF4" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="16">
@@ -11184,10 +11212,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z5" s="23">
         <v>43880.379166666666</v>
@@ -11199,13 +11227,20 @@
         <v>3294</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD5" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE5" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF5" s="21"/>
+      <c r="AF5" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="16">
@@ -11248,10 +11283,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z6" s="23">
         <v>43880.379166666666</v>
@@ -11263,13 +11298,20 @@
         <v>3294</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD6" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE6" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF6" s="21"/>
+      <c r="AF6" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="16">
@@ -11308,10 +11350,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z7" s="23">
         <v>43880.379166666666</v>
@@ -11323,13 +11365,20 @@
         <v>3294</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD7" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE7" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF7" s="21"/>
+      <c r="AF7" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="16">
@@ -11370,10 +11419,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z8" s="23">
         <v>43880.379166666666</v>
@@ -11385,13 +11434,20 @@
         <v>3294</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD8" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE8" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF8" s="21"/>
+      <c r="AF8" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="16">
@@ -11432,10 +11488,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z9" s="23">
         <v>43880.379166666666</v>
@@ -11447,13 +11503,20 @@
         <v>3294</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD9" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE9" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF9" s="21"/>
+      <c r="AF9" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="16">
@@ -11492,10 +11555,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="Z10" s="23">
         <v>43880.379166666666</v>
@@ -11507,13 +11570,20 @@
         <v>3294</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD10" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE10" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF10" s="21"/>
+      <c r="AF10" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="16">
@@ -11554,10 +11624,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="Z11" s="23">
         <v>43880.379166666666</v>
@@ -11569,13 +11639,20 @@
         <v>3294</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD11" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE11" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF11" s="21"/>
+      <c r="AF11" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="16">
@@ -11616,10 +11693,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U12" s="12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="V12" s="22" t="s">
         <v>3301</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>3302</v>
       </c>
       <c r="Z12" s="23">
         <v>43880.379166666666</v>
@@ -11631,13 +11708,20 @@
         <v>3294</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD12" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE12" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF12" s="21"/>
+      <c r="AF12" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="16">
@@ -11678,10 +11762,10 @@
         <v>43880.368877314817</v>
       </c>
       <c r="U13" s="12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="V13" s="22" t="s">
         <v>3301</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>3302</v>
       </c>
       <c r="Z13" s="23">
         <v>43880.379166666666</v>
@@ -11693,13 +11777,20 @@
         <v>3294</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD13" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE13" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF13" s="21"/>
+      <c r="AF13" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="16">
@@ -11734,16 +11825,16 @@
         <v>22</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="T14" s="13">
         <v>43880.368877314817</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z14" s="23">
         <v>43880.379166666666</v>
@@ -11755,13 +11846,20 @@
         <v>3294</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD14" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE14" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF14" s="21"/>
+      <c r="AF14" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="16">
@@ -11794,16 +11892,16 @@
         <v>7</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="T15" s="13">
         <v>43880.368877314817</v>
       </c>
       <c r="U15" s="12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="V15" s="22" t="s">
         <v>3301</v>
-      </c>
-      <c r="V15" s="22" t="s">
-        <v>3302</v>
       </c>
       <c r="Z15" s="23">
         <v>43880.379166666666</v>
@@ -11815,13 +11913,20 @@
         <v>3294</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AD15" s="13"/>
+        <v>3304</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>43880.416666666664</v>
+      </c>
       <c r="AE15" s="21" t="s">
         <v>3293</v>
       </c>
-      <c r="AF15" s="21"/>
+      <c r="AF15" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>3306</v>
+      </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="16">
@@ -11886,7 +11991,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
